--- a/corpus/resultadoPrueba.xlsx
+++ b/corpus/resultadoPrueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Escala GPT3</t>
+          <t>complexity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Respuesta GPT3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Rango</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Escala corpus</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Coincidencia</t>
         </is>
@@ -489,26 +494,21 @@
           <t>hand</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>very easy</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>very easy</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -529,26 +529,336 @@
           <t>hand</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.1 - 0.25</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.1973684210526315</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.13</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1973684210526315</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>the ten sons of Haman the son of Hammedatha, the Jew's enemy, but they didn't lay their hand on the plunder.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Let your hand be lifted up above your adversaries, and let all of your enemies be cut off.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2678571428571429</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2678571428571429</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Abimelech chased him, and he fled before him, and many fell wounded, even to the entrance of the gate.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>entrance</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>for as he thinks about the cost, so he is.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>When his armor bearer saw that Saul was dead, he likewise fell on his sword, and died with him.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>armor</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0277777777777777</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0277777777777777</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Therefore put on the whole armor of God, that you may be able to withstand in the evil day, and, having done all, to stand.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>armor</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hezekiah listened to them, and showed them all the house of his precious things, the silver, and the gold, and the spices, and the precious oil, and the house of his armor, and all that was found in his treasures: there was nothing in his house, nor in all his dominion, that Hezekiah didn't show them.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>armor</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>That first slaughter, which Jonathan and his armor bearer made, was about twenty men, within as it were half a furrow's length in an acre of land.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>armor</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>They put his armor in the house of their gods, and fastened his head in the house of Dagon.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>armor</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/corpus/resultadoPrueba.xlsx
+++ b/corpus/resultadoPrueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +464,6 @@
           <t>Rango</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Escala corpus</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Coincidencia</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -498,17 +488,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,10 +526,6 @@
           <t>0.01 - 0.25</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>0.1973684210526315</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -575,10 +557,6 @@
           <t>0.01 - 0.25</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -610,10 +588,6 @@
           <t>0.01 - 0.25</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>0.2678571428571429</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -645,10 +619,6 @@
           <t>0.01 - 0.25</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -680,10 +650,6 @@
           <t>0.01 - 0.25</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -715,10 +681,6 @@
           <t>0.51 - 0.75</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,10 +712,6 @@
           <t>0.51 - 0.75</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -785,10 +743,6 @@
           <t>0.51 - 0.75</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,10 +774,6 @@
           <t>0.51 - 0.75</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>0.3194444444444444</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -855,10 +805,6 @@
           <t>0.01 - 0.25</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>0.390625</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/corpus/resultadoPrueba.xlsx
+++ b/corpus/resultadoPrueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Rango</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Valor medio</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>compLex (complejidad a escala)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -487,12 +497,22 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>0.13</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>very easy</t>
         </is>
       </c>
     </row>
@@ -518,12 +538,22 @@
       <c r="E3" t="n">
         <v>0.1973684210526315</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>0.13</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>easy</t>
         </is>
       </c>
     </row>
@@ -549,12 +579,22 @@
       <c r="E4" t="n">
         <v>0.2</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>0.13</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>easy</t>
         </is>
       </c>
     </row>
@@ -580,12 +620,22 @@
       <c r="E5" t="n">
         <v>0.2678571428571429</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.13</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -611,12 +661,22 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>0.13</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>very easy</t>
         </is>
       </c>
     </row>
@@ -642,12 +702,22 @@
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>0.13</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>easy</t>
         </is>
       </c>
     </row>
@@ -673,12 +743,22 @@
       <c r="E8" t="n">
         <v>0.0277777777777777</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>0.63</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.51 - 0.75</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>easy</t>
         </is>
       </c>
     </row>
@@ -704,12 +784,22 @@
       <c r="E9" t="n">
         <v>0.2</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.63</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>easy</t>
         </is>
       </c>
     </row>
@@ -735,12 +825,22 @@
       <c r="E10" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.63</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>easy</t>
         </is>
       </c>
     </row>
@@ -766,12 +866,22 @@
       <c r="E11" t="n">
         <v>0.3194444444444444</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.63</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -797,12 +907,22 @@
       <c r="E12" t="n">
         <v>0.390625</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>0.13</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>

--- a/corpus/resultadoPrueba.xlsx
+++ b/corpus/resultadoPrueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>escala</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Respuesta GPT3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Rango</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Valor medio</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>compLex (complejidad a escala)</t>
+          <t>Complejidad GPT3</t>
         </is>
       </c>
     </row>
@@ -486,16 +486,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>But he, beckoning to them with his hand to be silent, declared to them how the Lord had brought him out of the prison.</t>
+          <t>At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>garment</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -504,16 +504,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>very easy</t>
-        </is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
     <row r="3">
@@ -527,34 +527,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>If I forget you, Jerusalem, let my right hand forget its skill.</t>
+          <t>It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>divination</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1973684210526315</v>
+        <v>0.638888918</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5880268389141909</v>
       </c>
     </row>
     <row r="4">
@@ -568,16 +568,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>the ten sons of Haman the son of Hammedatha, the Jew's enemy, but they didn't lay their hand on the plunder.</t>
+          <t>You have received gifts among men, yes, among the rebellious also, that Yah God might dwell there.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0.08928568200000001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -586,16 +586,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
     <row r="5">
@@ -609,34 +609,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Let your hand be lifted up above your adversaries, and let all of your enemies be cut off.</t>
+          <t>Therefore he poured the fierceness of his anger on him, and the strength of battle; and it set him on fire all around, but he didn't know; and it burned him, but he didn't take it to heart."</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2678571428571429</v>
+        <v>0.166666648</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
     <row r="6">
@@ -650,16 +650,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abimelech chased him, and he fled before him, and many fell wounded, even to the entrance of the gate.</t>
+          <t>The seventh angel sounded, and great voices in heaven followed, saying, "The kingdom of the world has become the Kingdom of our Lord, and of his Christ.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>entrance</t>
+          <t>voices</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.18421044</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>very easy</t>
-        </is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
     <row r="7">
@@ -691,16 +691,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>for as he thinks about the cost, so he is.</t>
+          <t>who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>rage</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0.214285633</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -709,16 +709,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
     <row r="8">
@@ -732,34 +732,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>When his armor bearer saw that Saul was dead, he likewise fell on his sword, and died with him.</t>
+          <t>'You shall keep my Sabbaths, and reverence my sanctuary; I am Yahweh.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>armor</t>
+          <t>Sabbaths</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0277777777777777</v>
+        <v>0.34375</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
     <row r="9">
@@ -773,34 +773,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Therefore put on the whole armor of God, that you may be able to withstand in the evil day, and, having done all, to stand.</t>
+          <t>Neither have we inheritance in the son of Jesse!</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>armor</t>
+          <t>Jesse</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>0.323529285</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
     <row r="10">
@@ -814,16 +814,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hezekiah listened to them, and showed them all the house of his precious things, the silver, and the gold, and the spices, and the precious oil, and the house of his armor, and all that was found in his treasures: there was nothing in his house, nor in all his dominion, that Hezekiah didn't show them.</t>
+          <t>Only the firstborn among animals, which is made a firstborn to Yahweh, no man may dedicate it; whether an ox or sheep, it is Yahweh's.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>armor</t>
+          <t>animals</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.222222222</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -832,16 +832,16 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
     <row r="11">
@@ -855,34 +855,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>That first slaughter, which Jonathan and his armor bearer made, was about twenty men, within as it were half a furrow's length in an acre of land.</t>
+          <t>Don't be desirous of his dainties, since they are deceitful food.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>armor</t>
+          <t>dainties</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.638888918</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5880268389141909</v>
       </c>
     </row>
     <row r="12">
@@ -896,34 +896,854 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>They put his armor in the house of their gods, and fastened his head in the house of Dagon.</t>
+          <t>The floods have lifted up, Yahweh, the floods have lifted up their voice.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>armor</t>
+          <t>voice</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.390625</v>
+        <v>0.266666692</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I12" t="inlineStr">
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>He has walled up my way so that I can't pass, and has set darkness in my paths.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>darkness</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Now, behold, the hand of the Lord is on you, and you will be blind, not seeing the sun for a season!"</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>behold</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>But the flesh of the bull, and its skin, and its dung, you shall burn with fire outside of the camp: it is a sin offering.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>camp</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.18421044</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>But if her husband altogether hold his peace at her from day to day, then he establishes all her vows, or all her bonds, which are on her: he has established them, because he held his peace at her in the day that he heard them.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>bonds</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.214285633</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Teach me your statutes.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>statutes</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>They talk about laying snares secretly.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>snares</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>But he who prophesies speaks to men for their edification, exhortation, and consolation.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>exhortation</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.517857157</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Then Tattenai, the governor beyond the River, Shetharbozenai, and their companions, because Darius the king had sent a decree, did accordingly with all diligence.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>River</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.203125</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>They are a perverse and crooked generation.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Then let our faces be looked on before you, and the face of the youths who eat of the king's dainties; and as you see, deal with your servants.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dainties</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Wives, be in subjection to your husbands, as is fitting in the Lord.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>subjection</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yahweh has mixed a spirit of perverseness in the midst of her; and they have caused Egypt to go astray in all of its works, like a drunken man staggers in his vomit.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>perverseness</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.416666549</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Multiply like grasshoppers.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>grasshoppers</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pharaoh took off his signet ring from his hand, and put it on Joseph's hand, and arrayed him in robes of fine linen, and put a gold chain about his neck,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>signet</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>For he will deliver you from the snare of the fowler, and from the deadly pestilence.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>snare</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.319444459</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The sons of Asher: Imnah, Ishvah, Ishvi, Beriah, and Serah their sister.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Asher</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.428571265</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>They sacrificed to demons, not God, to gods that they didn't know, to new gods that came up recently, which your fathers didn't dread.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>demons</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>In the second year of Darius the king, in the sixth month, in the first day of the month, the Word of Yahweh came by Haggai, the prophet, to Zerubbabel, the son of Shealtiel, governor of Judah, and to Joshua, the son of Jehozadak, the high priest, saying,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.22222223</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>For the waters of Dimon are full of blood; for I will bring yet more on Dimon, a lion on those of Moab who escape, and on the remnant of the land.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>lion</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.189692755706703</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Behold, the Lion who is of the tribe of Judah, the Root of David, has overcome; he who opens the book and its seven seals."</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Lion</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.171052596</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.189692755706703</v>
       </c>
     </row>
   </sheetData>
